--- a/example_reports/EJEMPLO-DATOS-CLIENTES.xlsx
+++ b/example_reports/EJEMPLO-DATOS-CLIENTES.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Esteban Suarez Prado\Agil\example_reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18915" windowHeight="6720"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Codigo</t>
   </si>
@@ -106,6 +111,18 @@
   </si>
   <si>
     <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Tipo De Precio</t>
+  </si>
+  <si>
+    <t>mayorista</t>
+  </si>
+  <si>
+    <t>MAYORISTA</t>
+  </si>
+  <si>
+    <t>MINORISTA</t>
   </si>
 </sst>
 </file>
@@ -141,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +174,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -204,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,19 +469,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +528,11 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15</v>
       </c>
@@ -554,7 +579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -600,8 +625,11 @@
       <c r="O3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
@@ -647,8 +675,11 @@
       <c r="O4">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18</v>
       </c>
@@ -694,8 +725,11 @@
       <c r="O5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>19</v>
       </c>
@@ -741,8 +775,11 @@
       <c r="O6">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -788,8 +825,11 @@
       <c r="O7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -835,8 +875,11 @@
       <c r="O8">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
@@ -882,8 +925,11 @@
       <c r="O9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
@@ -930,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
@@ -977,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -1023,8 +1069,11 @@
       <c r="O12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>29</v>
       </c>
@@ -1070,8 +1119,11 @@
       <c r="O13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
@@ -1117,8 +1169,11 @@
       <c r="O14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>31</v>
       </c>
@@ -1164,10 +1219,13 @@
       <c r="O15">
         <v>12</v>
       </c>
+      <c r="P15" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
